--- a/biology/Médecine/Barthélémy_Terrier/Barthélémy_Terrier.xlsx
+++ b/biology/Médecine/Barthélémy_Terrier/Barthélémy_Terrier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Barth%C3%A9l%C3%A9my_Terrier</t>
+          <t>Barthélémy_Terrier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Prosper Jacques Barthélemy Terrier, né à Montaiguët-en-Forez le 9 juin 1805 et mort au Donjon le 24 novembre 1876, est un médecin humaniste français, compagnon d'exil de Victor Hugo. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Barth%C3%A9l%C3%A9my_Terrier</t>
+          <t>Barthélémy_Terrier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il descend d'une famille de propriétaires terriens et de médecins engagés aux côtés des républicains donjonnais dès la Révolution de 1789. Il épouse Jeanne-Marie Anaïs Préveraud, sœur d'Honoré Préveraud. 
 Maire du Donjon en 1847, il est élu député de l'Allier en 1848.  C'est lui qui, de Paris, avertit les républicains donjonnais du coup d'État du 2 décembre 1851.
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Barth%C3%A9l%C3%A9my_Terrier</t>
+          <t>Barthélémy_Terrier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Barthélémy Terrier », dans Adolphe Robert et Gaston Cougny, Dictionnaire des parlementaires français, Edgar Bourloton, 1889-1891 [détail de l’édition]</t>
         </is>
